--- a/Statistics/Pozorovani dopravy v Praze 26.5.2023.xlsx
+++ b/Statistics/Pozorovani dopravy v Praze 26.5.2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\upce\YABPL - Bakalářská práce\vault\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\upce\YABPL - Bakalářská práce\Git\Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789C83FD-7C36-4D0D-963E-DB0FFD545EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC760A30-4A71-47BC-AE09-145208E631CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{2FA5AED2-F48C-4419-BD59-A2C431A1AA15}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>D</t>
   </si>
@@ -92,10 +92,34 @@
     <t>Délka pozorování - 15 minut</t>
   </si>
   <si>
-    <t>Počty</t>
+    <t>Procenta</t>
   </si>
   <si>
-    <t>Procenta</t>
+    <t>Dodávky</t>
+  </si>
+  <si>
+    <t>Počty v osobním autě</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Minibus</t>
+  </si>
+  <si>
+    <t>Motocykl</t>
+  </si>
+  <si>
+    <t>Pouze osobní</t>
+  </si>
+  <si>
+    <t>celkem</t>
+  </si>
+  <si>
+    <t>Všeho druhu</t>
+  </si>
+  <si>
+    <t>Procenta kumulovaně</t>
   </si>
 </sst>
 </file>
@@ -163,7 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -179,6 +203,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3435,9 +3460,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE8CE6C-FE3C-4BD5-BE07-D59DFC48223B}">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3447,15 +3474,33 @@
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -3492,8 +3537,14 @@
       <c r="L2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -3534,8 +3585,12 @@
         <f>SUM(E3:L3)</f>
         <v>280</v>
       </c>
+      <c r="O3">
+        <f>SUM(E3:H3)</f>
+        <v>239</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4" s="10">
         <v>0.72430555555555554</v>
       </c>
@@ -3576,8 +3631,12 @@
         <f t="shared" ref="M4:M7" si="0">SUM(E4:L4)</f>
         <v>538</v>
       </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O7" si="1">SUM(E4:H4)</f>
+        <v>452</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>0.69513888888888886</v>
       </c>
@@ -3613,8 +3672,12 @@
         <f t="shared" si="0"/>
         <v>331</v>
       </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B6" s="10">
         <v>0.7104166666666667</v>
       </c>
@@ -3651,8 +3714,12 @@
         <f t="shared" si="0"/>
         <v>329</v>
       </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>287</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -3661,250 +3728,446 @@
         <v>898</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:L7" si="1">SUM(F3:F6)</f>
+        <f t="shared" ref="F7:L7" si="2">SUM(F3:F6)</f>
         <v>336</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="K7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="L7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
         <v>1478</v>
       </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>1268</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <v>3</v>
+      </c>
+      <c r="W9">
+        <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C10" t="str">
         <f>C3</f>
         <v>Legerová</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" ref="E10:M10" si="2">E3/$M3</f>
+        <f t="shared" ref="E10:L10" si="3">E3/$M3</f>
         <v>0.66785714285714282</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16071428571428573</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.1428571428571426E-3</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.857142857142857E-2</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="M10" s="4">
         <f>M3/$M3</f>
         <v>1</v>
       </c>
+      <c r="O10" s="4">
+        <f>E3/$O3</f>
+        <v>0.78242677824267781</v>
+      </c>
+      <c r="P10" s="4">
+        <f t="shared" ref="P10:R10" si="4">F3/$O3</f>
+        <v>0.18828451882845187</v>
+      </c>
+      <c r="Q10" s="4">
+        <f t="shared" si="4"/>
+        <v>2.0920502092050208E-2</v>
+      </c>
+      <c r="R10" s="4">
+        <f t="shared" si="4"/>
+        <v>8.368200836820083E-3</v>
+      </c>
+      <c r="T10" s="11">
+        <f>SUM($O10:O10)</f>
+        <v>0.78242677824267781</v>
+      </c>
+      <c r="U10" s="11">
+        <f>SUM($O10:P10)</f>
+        <v>0.97071129707112969</v>
+      </c>
+      <c r="V10" s="11">
+        <f>SUM($O10:Q10)</f>
+        <v>0.99163179916317989</v>
+      </c>
+      <c r="W10" s="11">
+        <f>SUM($O10:R10)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C11" t="str">
-        <f t="shared" ref="C11:C14" si="3">C4</f>
+        <f t="shared" ref="C11:C14" si="5">C4</f>
         <v>Sokolská</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" ref="E11:M11" si="4">E4/$M4</f>
+        <f t="shared" ref="E11:M11" si="6">E4/$M4</f>
         <v>0.56877323420074355</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.24349442379182157</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.0446096654275093E-2</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.4349442379182153E-3</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.0631970260223054E-2</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.1152416356877323E-2</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.7881040892193308E-2</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.0185873605947957E-2</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C12" t="str">
-        <f t="shared" si="3"/>
-        <v>Ječná</v>
-      </c>
-      <c r="E12" s="4">
-        <f t="shared" ref="E12:M12" si="5">E5/$M5</f>
-        <v>0.61631419939577037</v>
-      </c>
-      <c r="F12" s="4">
-        <f t="shared" si="5"/>
-        <v>0.23564954682779457</v>
-      </c>
-      <c r="G12" s="4">
-        <f t="shared" si="5"/>
-        <v>1.2084592145015106E-2</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" si="5"/>
-        <v>1.2084592145015106E-2</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="5"/>
-        <v>5.7401812688821753E-2</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="5"/>
-        <v>9.0634441087613302E-3</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="5"/>
-        <v>2.1148036253776436E-2</v>
-      </c>
-      <c r="L12" s="4">
-        <f t="shared" si="5"/>
-        <v>3.6253776435045321E-2</v>
-      </c>
-      <c r="M12" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C13" t="str">
-        <f t="shared" si="3"/>
-        <v>Žitná</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" ref="E13:M13" si="6">E6/$M6</f>
-        <v>0.61094224924012153</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" si="6"/>
-        <v>0.24924012158054712</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" si="6"/>
-        <v>9.11854103343465E-3</v>
-      </c>
-      <c r="H13" s="4">
-        <f t="shared" si="6"/>
-        <v>3.0395136778115501E-3</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="6"/>
-        <v>4.8632218844984802E-2</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="6"/>
-        <v>9.11854103343465E-3</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="6"/>
-        <v>3.0395136778115502E-2</v>
-      </c>
-      <c r="L13" s="4">
-        <f t="shared" si="6"/>
-        <v>3.9513677811550151E-2</v>
-      </c>
-      <c r="M13" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
+      <c r="O11" s="4">
+        <f t="shared" ref="O11:R11" si="7">E4/$O4</f>
+        <v>0.67699115044247793</v>
+      </c>
+      <c r="P11" s="4">
+        <f t="shared" si="7"/>
+        <v>0.28982300884955753</v>
+      </c>
+      <c r="Q11" s="4">
+        <f t="shared" si="7"/>
+        <v>2.4336283185840708E-2</v>
+      </c>
+      <c r="R11" s="4">
+        <f t="shared" si="7"/>
+        <v>8.8495575221238937E-3</v>
+      </c>
+      <c r="T11" s="11">
+        <f>SUM($O11:O11)</f>
+        <v>0.67699115044247793</v>
+      </c>
+      <c r="U11" s="11">
+        <f>SUM($O11:P11)</f>
+        <v>0.9668141592920354</v>
+      </c>
+      <c r="V11" s="11">
+        <f>SUM($O11:Q11)</f>
+        <v>0.99115044247787609</v>
+      </c>
+      <c r="W11" s="11">
+        <f>SUM($O11:R11)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C12" t="str">
+        <f t="shared" si="5"/>
+        <v>Ječná</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" ref="E12:M12" si="8">E5/$M5</f>
+        <v>0.61631419939577037</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="8"/>
+        <v>0.23564954682779457</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="8"/>
+        <v>1.2084592145015106E-2</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="8"/>
+        <v>1.2084592145015106E-2</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="8"/>
+        <v>5.7401812688821753E-2</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="8"/>
+        <v>9.0634441087613302E-3</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="8"/>
+        <v>2.1148036253776436E-2</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="8"/>
+        <v>3.6253776435045321E-2</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" ref="O12:R12" si="9">E5/$O5</f>
+        <v>0.70344827586206893</v>
+      </c>
+      <c r="P12" s="4">
+        <f t="shared" si="9"/>
+        <v>0.26896551724137929</v>
+      </c>
+      <c r="Q12" s="4">
+        <f t="shared" si="9"/>
+        <v>1.3793103448275862E-2</v>
+      </c>
+      <c r="R12" s="4">
+        <f t="shared" si="9"/>
+        <v>1.3793103448275862E-2</v>
+      </c>
+      <c r="T12" s="11">
+        <f>SUM($O12:O12)</f>
+        <v>0.70344827586206893</v>
+      </c>
+      <c r="U12" s="11">
+        <f>SUM($O12:P12)</f>
+        <v>0.97241379310344822</v>
+      </c>
+      <c r="V12" s="11">
+        <f>SUM($O12:Q12)</f>
+        <v>0.98620689655172411</v>
+      </c>
+      <c r="W12" s="11">
+        <f>SUM($O12:R12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C13" t="str">
+        <f t="shared" si="5"/>
+        <v>Žitná</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" ref="E13:M13" si="10">E6/$M6</f>
+        <v>0.61094224924012153</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="10"/>
+        <v>0.24924012158054712</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="10"/>
+        <v>9.11854103343465E-3</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="10"/>
+        <v>3.0395136778115501E-3</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="10"/>
+        <v>4.8632218844984802E-2</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="10"/>
+        <v>9.11854103343465E-3</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="10"/>
+        <v>3.0395136778115502E-2</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="10"/>
+        <v>3.9513677811550151E-2</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" ref="O13:R13" si="11">E6/$O6</f>
+        <v>0.70034843205574915</v>
+      </c>
+      <c r="P13" s="4">
+        <f t="shared" si="11"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Q13" s="4">
+        <f t="shared" si="11"/>
+        <v>1.0452961672473868E-2</v>
+      </c>
+      <c r="R13" s="4">
+        <f t="shared" si="11"/>
+        <v>3.4843205574912892E-3</v>
+      </c>
+      <c r="T13" s="11">
+        <f>SUM($O13:O13)</f>
+        <v>0.70034843205574915</v>
+      </c>
+      <c r="U13" s="11">
+        <f>SUM($O13:P13)</f>
+        <v>0.98606271777003485</v>
+      </c>
+      <c r="V13" s="11">
+        <f>SUM($O13:Q13)</f>
+        <v>0.99651567944250874</v>
+      </c>
+      <c r="W13" s="11">
+        <f>SUM($O13:R13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Celkem</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" ref="E14:M14" si="7">E7/$M7</f>
+        <f t="shared" ref="E14:M14" si="12">E7/$M7</f>
         <v>0.60757780784844384</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.2273342354533153</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.5561569688768605E-2</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>7.4424898511502033E-3</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>6.427604871447902E-2</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.1502029769959404E-2</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2.6387009472259811E-2</v>
       </c>
       <c r="L14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3.9918809201623814E-2</v>
       </c>
       <c r="M14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" ref="O14:R14" si="13">E7/$O7</f>
+        <v>0.70820189274447953</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" si="13"/>
+        <v>0.26498422712933756</v>
+      </c>
+      <c r="Q14" s="4">
+        <f t="shared" si="13"/>
+        <v>1.8138801261829655E-2</v>
+      </c>
+      <c r="R14" s="4">
+        <f t="shared" si="13"/>
+        <v>8.6750788643533121E-3</v>
+      </c>
+      <c r="T14" s="11">
+        <f>SUM($O14:O14)</f>
+        <v>0.70820189274447953</v>
+      </c>
+      <c r="U14" s="11">
+        <f>SUM($O14:P14)</f>
+        <v>0.97318611987381709</v>
+      </c>
+      <c r="V14" s="11">
+        <f>SUM($O14:Q14)</f>
+        <v>0.99132492113564674</v>
+      </c>
+      <c r="W14" s="11">
+        <f>SUM($O14:R14)</f>
         <v>1</v>
       </c>
     </row>
